--- a/public/uploads/UploadTemplatetest.xlsx
+++ b/public/uploads/UploadTemplatetest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FAADD4-609B-4185-8E00-FCCDFCFF3554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C42D54E5-49E4-4B68-B76B-D88F3361198C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -777,7 +777,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -869,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="12">
-        <v>45505</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -895,7 +895,7 @@
   <dimension ref="A1:Q500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,7 +908,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="14"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="6" t="str">
@@ -981,19 +981,19 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C25" ca="1" si="0">4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-        <v>6176</v>
+        <v>5264</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D25" ca="1" si="1">4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-        <v>1924</v>
+        <v>3444</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E25" ca="1" si="2">4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-        <v>2724</v>
+        <v>2072</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F25" ca="1" si="3">4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-        <v>1000</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -1003,19 +1003,19 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>4756</v>
+        <v>6040</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>2900</v>
+        <v>3496</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="2"/>
-        <v>2584</v>
+        <v>2656</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="3"/>
-        <v>760</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -1025,19 +1025,19 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>6676</v>
+        <v>4956</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1940</v>
+        <v>4840</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>2032</v>
+        <v>1836</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="3"/>
-        <v>692</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -1047,19 +1047,19 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>2664</v>
+        <v>4812</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1840</v>
+        <v>3904</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>2568</v>
+        <v>1852</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="3"/>
-        <v>708</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -1069,19 +1069,19 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>2388</v>
+        <v>3720</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1312</v>
+        <v>960</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>3352</v>
+        <v>2060</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="3"/>
-        <v>476</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1091,19 +1091,19 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>3800</v>
+        <v>5144</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>4716</v>
+        <v>3308</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>2304</v>
+        <v>3036</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="3"/>
-        <v>556</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -1113,19 +1113,19 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>7512</v>
+        <v>3476</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>2080</v>
+        <v>4784</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>1464</v>
+        <v>3148</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="3"/>
-        <v>1140</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -1134,19 +1134,19 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>3732</v>
+        <v>5108</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>3632</v>
+        <v>900</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>2564</v>
+        <v>2128</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="3"/>
-        <v>992</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -1155,19 +1155,19 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>4400</v>
+        <v>5140</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>1340</v>
+        <v>2728</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>2760</v>
+        <v>3124</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="3"/>
-        <v>776</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -1176,19 +1176,19 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>7600</v>
+        <v>7124</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>2852</v>
+        <v>4232</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>2096</v>
+        <v>2520</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="3"/>
-        <v>696</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -1197,19 +1197,19 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>2660</v>
+        <v>4456</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>4068</v>
+        <v>3608</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>3064</v>
+        <v>2888</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="3"/>
-        <v>1128</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -1218,19 +1218,19 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>6536</v>
+        <v>4932</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>2504</v>
+        <v>1800</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>2404</v>
+        <v>2716</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="3"/>
-        <v>808</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -1239,19 +1239,19 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>5040</v>
+        <v>6200</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>3312</v>
+        <v>3336</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>1252</v>
+        <v>1760</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="3"/>
-        <v>324</v>
+        <v>876</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -1260,19 +1260,19 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>6008</v>
+        <v>7844</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>4024</v>
+        <v>2056</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>1144</v>
+        <v>2144</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="3"/>
-        <v>472</v>
+        <v>844</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -1281,19 +1281,19 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>5652</v>
+        <v>4216</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>4476</v>
+        <v>5444</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>3588</v>
+        <v>2392</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="3"/>
-        <v>544</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -1302,19 +1302,19 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>4764</v>
+        <v>5656</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>2884</v>
+        <v>3808</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>3588</v>
+        <v>1924</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="3"/>
-        <v>688</v>
+        <v>952</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -1323,19 +1323,19 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>5868</v>
+        <v>4452</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>3844</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>2684</v>
+        <v>1816</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="3"/>
-        <v>1008</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
@@ -1344,19 +1344,19 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>4496</v>
+        <v>6160</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>1408</v>
+        <v>4324</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>3188</v>
+        <v>2484</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>944</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -1365,19 +1365,19 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>5220</v>
+        <v>2508</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>3740</v>
+        <v>3920</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>2112</v>
+        <v>2520</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="3"/>
-        <v>464</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
@@ -1386,19 +1386,19 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>7628</v>
+        <v>5564</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>4340</v>
+        <v>4136</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>1224</v>
+        <v>1964</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="3"/>
-        <v>156</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
@@ -1407,19 +1407,19 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>3812</v>
+        <v>5860</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>2596</v>
+        <v>1544</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>2916</v>
+        <v>1588</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="3"/>
-        <v>1232</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -1428,19 +1428,19 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>5880</v>
+        <v>3456</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>1060</v>
+        <v>1484</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>2448</v>
+        <v>1836</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="3"/>
-        <v>708</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
@@ -1449,19 +1449,19 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>8008</v>
+        <v>6388</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>3692</v>
+        <v>1700</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>1876</v>
+        <v>1164</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="3"/>
-        <v>940</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -1470,1442 +1470,1442 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>5572</v>
+        <v>5276</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>1560</v>
+        <v>4220</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>2528</v>
+        <v>2296</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="3"/>
-        <v>804</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="10"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="10"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="10"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="10"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="10"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="10"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="10"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="10"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="10"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="10"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="10"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="10"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="10"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="10"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="10"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="10"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="10"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="10"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="10"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="10"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="10"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="10"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="10"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="10"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="10"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="10"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="10"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="10"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="10"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="10"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="10"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="10"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="10"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="10"/>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="10"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="10"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="10"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="10"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="10"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="10"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="10"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="10"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="10"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="10"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="10"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="10"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="10"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="10"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="10"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="10"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="10"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="10"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="10"/>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="10"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="10"/>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="10"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="10"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="10"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="10"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="10"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="10"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="10"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="10"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="10"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="10"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="10"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="10"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="10"/>
+      <c r="B94" s="9"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="10"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="10"/>
+      <c r="B96" s="9"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="10"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="10"/>
+      <c r="B98" s="9"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="10"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="10"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="10"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="10"/>
+      <c r="B102" s="9"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="10"/>
+      <c r="B103" s="9"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="10"/>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="10"/>
+      <c r="B105" s="9"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="10"/>
+      <c r="B106" s="9"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" s="10"/>
+      <c r="B107" s="9"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="10"/>
+      <c r="B108" s="9"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="10"/>
+      <c r="B109" s="9"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110" s="10"/>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="10"/>
+      <c r="B111" s="9"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112" s="10"/>
+      <c r="B112" s="9"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" s="10"/>
+      <c r="B113" s="9"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="10"/>
+      <c r="B114" s="9"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="10"/>
+      <c r="B115" s="9"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" s="10"/>
+      <c r="B116" s="9"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="10"/>
+      <c r="B117" s="9"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" s="10"/>
+      <c r="B118" s="9"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" s="10"/>
+      <c r="B119" s="9"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120" s="10"/>
+      <c r="B120" s="9"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" s="10"/>
+      <c r="B121" s="9"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B122" s="10"/>
+      <c r="B122" s="9"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123" s="10"/>
+      <c r="B123" s="9"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B124" s="10"/>
+      <c r="B124" s="9"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B125" s="10"/>
+      <c r="B125" s="9"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B126" s="10"/>
+      <c r="B126" s="9"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B127" s="10"/>
+      <c r="B127" s="9"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B128" s="10"/>
+      <c r="B128" s="9"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B129" s="10"/>
+      <c r="B129" s="9"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B130" s="10"/>
+      <c r="B130" s="9"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B131" s="10"/>
+      <c r="B131" s="9"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B132" s="10"/>
+      <c r="B132" s="9"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B133" s="10"/>
+      <c r="B133" s="9"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B134" s="10"/>
+      <c r="B134" s="9"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B135" s="10"/>
+      <c r="B135" s="9"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B136" s="10"/>
+      <c r="B136" s="9"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B137" s="10"/>
+      <c r="B137" s="9"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B138" s="10"/>
+      <c r="B138" s="9"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B139" s="10"/>
+      <c r="B139" s="9"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B140" s="10"/>
+      <c r="B140" s="9"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B141" s="10"/>
+      <c r="B141" s="9"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B142" s="10"/>
+      <c r="B142" s="9"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B143" s="10"/>
+      <c r="B143" s="9"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B144" s="10"/>
+      <c r="B144" s="9"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B145" s="10"/>
+      <c r="B145" s="9"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146" s="10"/>
+      <c r="B146" s="9"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147" s="10"/>
+      <c r="B147" s="9"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B148" s="10"/>
+      <c r="B148" s="9"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B149" s="10"/>
+      <c r="B149" s="9"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B150" s="10"/>
+      <c r="B150" s="9"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B151" s="10"/>
+      <c r="B151" s="9"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B152" s="10"/>
+      <c r="B152" s="9"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B153" s="10"/>
+      <c r="B153" s="9"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B154" s="10"/>
+      <c r="B154" s="9"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B155" s="10"/>
+      <c r="B155" s="9"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B156" s="10"/>
+      <c r="B156" s="9"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B157" s="10"/>
+      <c r="B157" s="9"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B158" s="10"/>
+      <c r="B158" s="9"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B159" s="10"/>
+      <c r="B159" s="9"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B160" s="10"/>
+      <c r="B160" s="9"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161" s="10"/>
+      <c r="B161" s="9"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" s="10"/>
+      <c r="B162" s="9"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B163" s="10"/>
+      <c r="B163" s="9"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B164" s="10"/>
+      <c r="B164" s="9"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B165" s="10"/>
+      <c r="B165" s="9"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B166" s="10"/>
+      <c r="B166" s="9"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B167" s="10"/>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B168" s="10"/>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B169" s="10"/>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B170" s="10"/>
+      <c r="B170" s="9"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B171" s="10"/>
+      <c r="B171" s="9"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B172" s="10"/>
+      <c r="B172" s="9"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B173" s="10"/>
+      <c r="B173" s="9"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B174" s="10"/>
+      <c r="B174" s="9"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B175" s="10"/>
+      <c r="B175" s="9"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B176" s="10"/>
+      <c r="B176" s="9"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B177" s="10"/>
+      <c r="B177" s="9"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B178" s="10"/>
+      <c r="B178" s="9"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B179" s="10"/>
+      <c r="B179" s="9"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B180" s="10"/>
+      <c r="B180" s="9"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B181" s="10"/>
+      <c r="B181" s="9"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B182" s="10"/>
+      <c r="B182" s="9"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B183" s="10"/>
+      <c r="B183" s="9"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B184" s="10"/>
+      <c r="B184" s="9"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B185" s="10"/>
+      <c r="B185" s="9"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B186" s="10"/>
+      <c r="B186" s="9"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B187" s="10"/>
+      <c r="B187" s="9"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B188" s="10"/>
+      <c r="B188" s="9"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B189" s="10"/>
+      <c r="B189" s="9"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B190" s="10"/>
+      <c r="B190" s="9"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B191" s="10"/>
+      <c r="B191" s="9"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B192" s="10"/>
+      <c r="B192" s="9"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B193" s="10"/>
+      <c r="B193" s="9"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B194" s="10"/>
+      <c r="B194" s="9"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B195" s="10"/>
+      <c r="B195" s="9"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B196" s="10"/>
+      <c r="B196" s="9"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B197" s="10"/>
+      <c r="B197" s="9"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B198" s="10"/>
+      <c r="B198" s="9"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B199" s="10"/>
+      <c r="B199" s="9"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B200" s="10"/>
+      <c r="B200" s="9"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B201" s="10"/>
+      <c r="B201" s="9"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B202" s="10"/>
+      <c r="B202" s="9"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B203" s="10"/>
+      <c r="B203" s="9"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B204" s="10"/>
+      <c r="B204" s="9"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B205" s="10"/>
+      <c r="B205" s="9"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B206" s="10"/>
+      <c r="B206" s="9"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B207" s="10"/>
+      <c r="B207" s="9"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B208" s="10"/>
+      <c r="B208" s="9"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B209" s="10"/>
+      <c r="B209" s="9"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B210" s="10"/>
+      <c r="B210" s="9"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B211" s="10"/>
+      <c r="B211" s="9"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B212" s="10"/>
+      <c r="B212" s="9"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B213" s="10"/>
+      <c r="B213" s="9"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B214" s="10"/>
+      <c r="B214" s="9"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B215" s="10"/>
+      <c r="B215" s="9"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B216" s="10"/>
+      <c r="B216" s="9"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B217" s="10"/>
+      <c r="B217" s="9"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B218" s="10"/>
+      <c r="B218" s="9"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B219" s="10"/>
+      <c r="B219" s="9"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B220" s="10"/>
+      <c r="B220" s="9"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B221" s="10"/>
+      <c r="B221" s="9"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B222" s="10"/>
+      <c r="B222" s="9"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B223" s="10"/>
+      <c r="B223" s="9"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B224" s="10"/>
+      <c r="B224" s="9"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B225" s="10"/>
+      <c r="B225" s="9"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B226" s="10"/>
+      <c r="B226" s="9"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B227" s="10"/>
+      <c r="B227" s="9"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B228" s="10"/>
+      <c r="B228" s="9"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B229" s="10"/>
+      <c r="B229" s="9"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B230" s="10"/>
+      <c r="B230" s="9"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B231" s="10"/>
+      <c r="B231" s="9"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B232" s="10"/>
+      <c r="B232" s="9"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B233" s="10"/>
+      <c r="B233" s="9"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B234" s="10"/>
+      <c r="B234" s="9"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B235" s="10"/>
+      <c r="B235" s="9"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B236" s="10"/>
+      <c r="B236" s="9"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B237" s="10"/>
+      <c r="B237" s="9"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B238" s="10"/>
+      <c r="B238" s="9"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B239" s="10"/>
+      <c r="B239" s="9"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B240" s="10"/>
+      <c r="B240" s="9"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B241" s="10"/>
+      <c r="B241" s="9"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B242" s="10"/>
+      <c r="B242" s="9"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B243" s="10"/>
+      <c r="B243" s="9"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B244" s="10"/>
+      <c r="B244" s="9"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B245" s="10"/>
+      <c r="B245" s="9"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B246" s="10"/>
+      <c r="B246" s="9"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B247" s="10"/>
+      <c r="B247" s="9"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B248" s="10"/>
+      <c r="B248" s="9"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B249" s="10"/>
+      <c r="B249" s="9"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B250" s="10"/>
+      <c r="B250" s="9"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B251" s="10"/>
+      <c r="B251" s="9"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B252" s="10"/>
+      <c r="B252" s="9"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B253" s="10"/>
+      <c r="B253" s="9"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B254" s="10"/>
+      <c r="B254" s="9"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B255" s="10"/>
+      <c r="B255" s="9"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B256" s="10"/>
+      <c r="B256" s="9"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B257" s="10"/>
+      <c r="B257" s="9"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B258" s="10"/>
+      <c r="B258" s="9"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B259" s="10"/>
+      <c r="B259" s="9"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B260" s="10"/>
+      <c r="B260" s="9"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B261" s="10"/>
+      <c r="B261" s="9"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B262" s="10"/>
+      <c r="B262" s="9"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B263" s="10"/>
+      <c r="B263" s="9"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B264" s="10"/>
+      <c r="B264" s="9"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B265" s="10"/>
+      <c r="B265" s="9"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B266" s="10"/>
+      <c r="B266" s="9"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B267" s="10"/>
+      <c r="B267" s="9"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B268" s="10"/>
+      <c r="B268" s="9"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B269" s="10"/>
+      <c r="B269" s="9"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B270" s="10"/>
+      <c r="B270" s="9"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B271" s="10"/>
+      <c r="B271" s="9"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B272" s="10"/>
+      <c r="B272" s="9"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B273" s="10"/>
+      <c r="B273" s="9"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B274" s="10"/>
+      <c r="B274" s="9"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B275" s="10"/>
+      <c r="B275" s="9"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B276" s="10"/>
+      <c r="B276" s="9"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B277" s="10"/>
+      <c r="B277" s="9"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B278" s="10"/>
+      <c r="B278" s="9"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B279" s="10"/>
+      <c r="B279" s="9"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B280" s="10"/>
+      <c r="B280" s="9"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B281" s="10"/>
+      <c r="B281" s="9"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B282" s="10"/>
+      <c r="B282" s="9"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B283" s="10"/>
+      <c r="B283" s="9"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B284" s="10"/>
+      <c r="B284" s="9"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B285" s="10"/>
+      <c r="B285" s="9"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B286" s="10"/>
+      <c r="B286" s="9"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B287" s="10"/>
+      <c r="B287" s="9"/>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B288" s="10"/>
+      <c r="B288" s="9"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B289" s="10"/>
+      <c r="B289" s="9"/>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B290" s="10"/>
+      <c r="B290" s="9"/>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B291" s="10"/>
+      <c r="B291" s="9"/>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B292" s="10"/>
+      <c r="B292" s="9"/>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B293" s="10"/>
+      <c r="B293" s="9"/>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B294" s="10"/>
+      <c r="B294" s="9"/>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B295" s="10"/>
+      <c r="B295" s="9"/>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B296" s="10"/>
+      <c r="B296" s="9"/>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B297" s="10"/>
+      <c r="B297" s="9"/>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B298" s="10"/>
+      <c r="B298" s="9"/>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B299" s="10"/>
+      <c r="B299" s="9"/>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B300" s="10"/>
+      <c r="B300" s="9"/>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B301" s="10"/>
+      <c r="B301" s="9"/>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B302" s="10"/>
+      <c r="B302" s="9"/>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B303" s="10"/>
+      <c r="B303" s="9"/>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B304" s="10"/>
+      <c r="B304" s="9"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B305" s="10"/>
+      <c r="B305" s="9"/>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B306" s="10"/>
+      <c r="B306" s="9"/>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B307" s="10"/>
+      <c r="B307" s="9"/>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B308" s="10"/>
+      <c r="B308" s="9"/>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B309" s="10"/>
+      <c r="B309" s="9"/>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B310" s="10"/>
+      <c r="B310" s="9"/>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B311" s="10"/>
+      <c r="B311" s="9"/>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B312" s="10"/>
+      <c r="B312" s="9"/>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B313" s="10"/>
+      <c r="B313" s="9"/>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B314" s="10"/>
+      <c r="B314" s="9"/>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B315" s="10"/>
+      <c r="B315" s="9"/>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B316" s="10"/>
+      <c r="B316" s="9"/>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B317" s="10"/>
+      <c r="B317" s="9"/>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B318" s="10"/>
+      <c r="B318" s="9"/>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B319" s="10"/>
+      <c r="B319" s="9"/>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B320" s="10"/>
+      <c r="B320" s="9"/>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B321" s="10"/>
+      <c r="B321" s="9"/>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B322" s="10"/>
+      <c r="B322" s="9"/>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B323" s="10"/>
+      <c r="B323" s="9"/>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B324" s="10"/>
+      <c r="B324" s="9"/>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B325" s="10"/>
+      <c r="B325" s="9"/>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B326" s="10"/>
+      <c r="B326" s="9"/>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B327" s="10"/>
+      <c r="B327" s="9"/>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B328" s="10"/>
+      <c r="B328" s="9"/>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B329" s="10"/>
+      <c r="B329" s="9"/>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B330" s="10"/>
+      <c r="B330" s="9"/>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B331" s="10"/>
+      <c r="B331" s="9"/>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B332" s="10"/>
+      <c r="B332" s="9"/>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B333" s="10"/>
+      <c r="B333" s="9"/>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B334" s="10"/>
+      <c r="B334" s="9"/>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B335" s="10"/>
+      <c r="B335" s="9"/>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B336" s="10"/>
+      <c r="B336" s="9"/>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B337" s="10"/>
+      <c r="B337" s="9"/>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B338" s="10"/>
+      <c r="B338" s="9"/>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B339" s="10"/>
+      <c r="B339" s="9"/>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B340" s="10"/>
+      <c r="B340" s="9"/>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B341" s="10"/>
+      <c r="B341" s="9"/>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B342" s="10"/>
+      <c r="B342" s="9"/>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B343" s="10"/>
+      <c r="B343" s="9"/>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B344" s="10"/>
+      <c r="B344" s="9"/>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B345" s="10"/>
+      <c r="B345" s="9"/>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B346" s="10"/>
+      <c r="B346" s="9"/>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B347" s="10"/>
+      <c r="B347" s="9"/>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B348" s="10"/>
+      <c r="B348" s="9"/>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B349" s="10"/>
+      <c r="B349" s="9"/>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B350" s="10"/>
+      <c r="B350" s="9"/>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B351" s="10"/>
+      <c r="B351" s="9"/>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B352" s="10"/>
+      <c r="B352" s="9"/>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B353" s="10"/>
+      <c r="B353" s="9"/>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B354" s="10"/>
+      <c r="B354" s="9"/>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B355" s="10"/>
+      <c r="B355" s="9"/>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B356" s="10"/>
+      <c r="B356" s="9"/>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B357" s="10"/>
+      <c r="B357" s="9"/>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B358" s="10"/>
+      <c r="B358" s="9"/>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B359" s="10"/>
+      <c r="B359" s="9"/>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B360" s="10"/>
+      <c r="B360" s="9"/>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B361" s="10"/>
+      <c r="B361" s="9"/>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B362" s="10"/>
+      <c r="B362" s="9"/>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B363" s="10"/>
+      <c r="B363" s="9"/>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B364" s="10"/>
+      <c r="B364" s="9"/>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B365" s="10"/>
+      <c r="B365" s="9"/>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B366" s="10"/>
+      <c r="B366" s="9"/>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B367" s="10"/>
+      <c r="B367" s="9"/>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B368" s="10"/>
+      <c r="B368" s="9"/>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B369" s="10"/>
+      <c r="B369" s="9"/>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B370" s="10"/>
+      <c r="B370" s="9"/>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B371" s="10"/>
+      <c r="B371" s="9"/>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B372" s="10"/>
+      <c r="B372" s="9"/>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B373" s="10"/>
+      <c r="B373" s="9"/>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B374" s="10"/>
+      <c r="B374" s="9"/>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B375" s="10"/>
+      <c r="B375" s="9"/>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B376" s="10"/>
+      <c r="B376" s="9"/>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B377" s="10"/>
+      <c r="B377" s="9"/>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B378" s="10"/>
+      <c r="B378" s="9"/>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B379" s="10"/>
+      <c r="B379" s="9"/>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B380" s="10"/>
+      <c r="B380" s="9"/>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B381" s="10"/>
+      <c r="B381" s="9"/>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B382" s="10"/>
+      <c r="B382" s="9"/>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B383" s="10"/>
+      <c r="B383" s="9"/>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B384" s="10"/>
+      <c r="B384" s="9"/>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B385" s="10"/>
+      <c r="B385" s="9"/>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B386" s="10"/>
+      <c r="B386" s="9"/>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B387" s="10"/>
+      <c r="B387" s="9"/>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B388" s="10"/>
+      <c r="B388" s="9"/>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B389" s="10"/>
+      <c r="B389" s="9"/>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B390" s="10"/>
+      <c r="B390" s="9"/>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B391" s="10"/>
+      <c r="B391" s="9"/>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B392" s="10"/>
+      <c r="B392" s="9"/>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B393" s="10"/>
+      <c r="B393" s="9"/>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B394" s="10"/>
+      <c r="B394" s="9"/>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B395" s="10"/>
+      <c r="B395" s="9"/>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B396" s="10"/>
+      <c r="B396" s="9"/>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B397" s="10"/>
+      <c r="B397" s="9"/>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B398" s="10"/>
+      <c r="B398" s="9"/>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B399" s="10"/>
+      <c r="B399" s="9"/>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B400" s="10"/>
+      <c r="B400" s="9"/>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B401" s="10"/>
+      <c r="B401" s="9"/>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B402" s="10"/>
+      <c r="B402" s="9"/>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B403" s="10"/>
+      <c r="B403" s="9"/>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B404" s="10"/>
+      <c r="B404" s="9"/>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B405" s="10"/>
+      <c r="B405" s="9"/>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B406" s="10"/>
+      <c r="B406" s="9"/>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B407" s="10"/>
+      <c r="B407" s="9"/>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B408" s="10"/>
+      <c r="B408" s="9"/>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B409" s="10"/>
+      <c r="B409" s="9"/>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B410" s="10"/>
+      <c r="B410" s="9"/>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B411" s="10"/>
+      <c r="B411" s="9"/>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B412" s="10"/>
+      <c r="B412" s="9"/>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B413" s="10"/>
+      <c r="B413" s="9"/>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B414" s="10"/>
+      <c r="B414" s="9"/>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B415" s="10"/>
+      <c r="B415" s="9"/>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B416" s="10"/>
+      <c r="B416" s="9"/>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B417" s="10"/>
+      <c r="B417" s="9"/>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B418" s="10"/>
+      <c r="B418" s="9"/>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B419" s="10"/>
+      <c r="B419" s="9"/>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B420" s="10"/>
+      <c r="B420" s="9"/>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B421" s="10"/>
+      <c r="B421" s="9"/>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B422" s="10"/>
+      <c r="B422" s="9"/>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B423" s="10"/>
+      <c r="B423" s="9"/>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B424" s="10"/>
+      <c r="B424" s="9"/>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B425" s="10"/>
+      <c r="B425" s="9"/>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B426" s="10"/>
+      <c r="B426" s="9"/>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B427" s="10"/>
+      <c r="B427" s="9"/>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B428" s="10"/>
+      <c r="B428" s="9"/>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B429" s="10"/>
+      <c r="B429" s="9"/>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B430" s="10"/>
+      <c r="B430" s="9"/>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B431" s="10"/>
+      <c r="B431" s="9"/>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B432" s="10"/>
+      <c r="B432" s="9"/>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B433" s="10"/>
+      <c r="B433" s="9"/>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B434" s="10"/>
+      <c r="B434" s="9"/>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B435" s="10"/>
+      <c r="B435" s="9"/>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B436" s="10"/>
+      <c r="B436" s="9"/>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B437" s="10"/>
+      <c r="B437" s="9"/>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B438" s="10"/>
+      <c r="B438" s="9"/>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B439" s="10"/>
+      <c r="B439" s="9"/>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B440" s="10"/>
+      <c r="B440" s="9"/>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B441" s="10"/>
+      <c r="B441" s="9"/>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B442" s="10"/>
+      <c r="B442" s="9"/>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B443" s="10"/>
+      <c r="B443" s="9"/>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B444" s="10"/>
+      <c r="B444" s="9"/>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B445" s="10"/>
+      <c r="B445" s="9"/>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B446" s="10"/>
+      <c r="B446" s="9"/>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B447" s="10"/>
+      <c r="B447" s="9"/>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B448" s="10"/>
+      <c r="B448" s="9"/>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B449" s="10"/>
+      <c r="B449" s="9"/>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B450" s="10"/>
+      <c r="B450" s="9"/>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B451" s="10"/>
+      <c r="B451" s="9"/>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B452" s="10"/>
+      <c r="B452" s="9"/>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B453" s="10"/>
+      <c r="B453" s="9"/>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B454" s="10"/>
+      <c r="B454" s="9"/>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B455" s="10"/>
+      <c r="B455" s="9"/>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B456" s="10"/>
+      <c r="B456" s="9"/>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B457" s="10"/>
+      <c r="B457" s="9"/>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B458" s="10"/>
+      <c r="B458" s="9"/>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B459" s="10"/>
+      <c r="B459" s="9"/>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B460" s="10"/>
+      <c r="B460" s="9"/>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B461" s="10"/>
+      <c r="B461" s="9"/>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B462" s="10"/>
+      <c r="B462" s="9"/>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B463" s="10"/>
+      <c r="B463" s="9"/>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B464" s="10"/>
+      <c r="B464" s="9"/>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B465" s="10"/>
+      <c r="B465" s="9"/>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B466" s="10"/>
+      <c r="B466" s="9"/>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B467" s="10"/>
+      <c r="B467" s="9"/>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B468" s="10"/>
+      <c r="B468" s="9"/>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B469" s="10"/>
+      <c r="B469" s="9"/>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B470" s="10"/>
+      <c r="B470" s="9"/>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B471" s="10"/>
+      <c r="B471" s="9"/>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B472" s="10"/>
+      <c r="B472" s="9"/>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B473" s="10"/>
+      <c r="B473" s="9"/>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B474" s="10"/>
+      <c r="B474" s="9"/>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B475" s="10"/>
+      <c r="B475" s="9"/>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B476" s="10"/>
+      <c r="B476" s="9"/>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B477" s="10"/>
+      <c r="B477" s="9"/>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B478" s="10"/>
+      <c r="B478" s="9"/>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B479" s="10"/>
+      <c r="B479" s="9"/>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B480" s="10"/>
+      <c r="B480" s="9"/>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B481" s="10"/>
+      <c r="B481" s="9"/>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B482" s="10"/>
+      <c r="B482" s="9"/>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B483" s="10"/>
+      <c r="B483" s="9"/>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B484" s="10"/>
+      <c r="B484" s="9"/>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B485" s="10"/>
+      <c r="B485" s="9"/>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B486" s="10"/>
+      <c r="B486" s="9"/>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B487" s="10"/>
+      <c r="B487" s="9"/>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B488" s="10"/>
+      <c r="B488" s="9"/>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B489" s="10"/>
+      <c r="B489" s="9"/>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B490" s="10"/>
+      <c r="B490" s="9"/>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B491" s="10"/>
+      <c r="B491" s="9"/>
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B492" s="10"/>
+      <c r="B492" s="9"/>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B493" s="10"/>
+      <c r="B493" s="9"/>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B494" s="10"/>
+      <c r="B494" s="9"/>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B495" s="10"/>
+      <c r="B495" s="9"/>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B496" s="10"/>
+      <c r="B496" s="9"/>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B497" s="10"/>
+      <c r="B497" s="9"/>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B498" s="10"/>
+      <c r="B498" s="9"/>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B499" s="10"/>
+      <c r="B499" s="9"/>
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B500" s="10"/>
@@ -2926,7 +2926,7 @@
   <dimension ref="A1:BK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3867,19 +3867,19 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C25" ca="1" si="0">4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-        <v>4216</v>
+        <v>5540</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D25" ca="1" si="1">4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-        <v>3420</v>
+        <v>1940</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E25" ca="1" si="2">4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-        <v>2796</v>
+        <v>2164</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F25" ca="1" si="3">4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-        <v>476</v>
+        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -3889,19 +3889,19 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>5944</v>
+        <v>3520</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>3276</v>
+        <v>4744</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="2"/>
-        <v>3180</v>
+        <v>3268</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="3"/>
-        <v>800</v>
+        <v>932</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -3911,19 +3911,19 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>7720</v>
+        <v>2324</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>3632</v>
+        <v>4980</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>2228</v>
+        <v>1992</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="3"/>
-        <v>824</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -3933,19 +3933,19 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4064</v>
+        <v>5340</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>272</v>
+        <v>4964</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>2216</v>
+        <v>2344</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="3"/>
-        <v>1088</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -3955,19 +3955,19 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>5276</v>
+        <v>6848</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>4800</v>
+        <v>2312</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>4124</v>
+        <v>1892</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="3"/>
-        <v>556</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3977,19 +3977,19 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>8800</v>
+        <v>4056</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>5660</v>
+        <v>1516</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>2672</v>
+        <v>1648</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="3"/>
-        <v>844</v>
+        <v>880</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -3999,19 +3999,19 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>4304</v>
+        <v>5380</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>2188</v>
+        <v>412</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>2736</v>
+        <v>1324</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="3"/>
-        <v>1288</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -4020,19 +4020,19 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>6880</v>
+        <v>3448</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>4260</v>
+        <v>3116</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>1904</v>
+        <v>1032</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="3"/>
-        <v>880</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -4041,19 +4041,19 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>8408</v>
+        <v>4884</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2660</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>2376</v>
+        <v>3076</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="3"/>
-        <v>904</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>5860</v>
+        <v>6688</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>5724</v>
+        <v>4628</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>1340</v>
+        <v>1276</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="3"/>
-        <v>1008</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -4083,19 +4083,19 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>3376</v>
+        <v>6012</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>2232</v>
+        <v>800</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>2112</v>
+        <v>2476</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="3"/>
-        <v>816</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -4104,19 +4104,19 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>6428</v>
+        <v>3592</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>1548</v>
+        <v>4052</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>2796</v>
+        <v>1812</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="3"/>
-        <v>628</v>
+        <v>724</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -4125,19 +4125,19 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>5800</v>
+        <v>4756</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>2332</v>
+        <v>3768</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>2996</v>
+        <v>1568</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="3"/>
-        <v>748</v>
+        <v>856</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>5936</v>
+        <v>4284</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>4312</v>
+        <v>1096</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>1452</v>
+        <v>2496</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="3"/>
-        <v>952</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -4167,19 +4167,19 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>4016</v>
+        <v>6488</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>1836</v>
+        <v>912</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>2792</v>
+        <v>2420</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="3"/>
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -4188,19 +4188,19 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>4988</v>
+        <v>3944</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>1588</v>
+        <v>2228</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>984</v>
+        <v>1768</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="3"/>
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -4209,19 +4209,19 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>4320</v>
+        <v>3148</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>5372</v>
+        <v>2676</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>984</v>
+        <v>3284</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="3"/>
-        <v>776</v>
+        <v>884</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>6244</v>
+        <v>8056</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>4124</v>
+        <v>5008</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>2508</v>
+        <v>2756</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>380</v>
+        <v>880</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -4251,19 +4251,19 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>4988</v>
+        <v>3016</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>3052</v>
+        <v>3824</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>2048</v>
+        <v>2972</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
@@ -4272,19 +4272,19 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>3876</v>
+        <v>4996</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>4200</v>
+        <v>3496</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>3228</v>
+        <v>2444</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="3"/>
-        <v>840</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
@@ -4293,19 +4293,19 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>4240</v>
+        <v>6300</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>1496</v>
+        <v>4036</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>3468</v>
+        <v>2772</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="3"/>
-        <v>952</v>
+        <v>892</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>4612</v>
+        <v>5792</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>4992</v>
+        <v>3236</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>2436</v>
+        <v>2952</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="3"/>
-        <v>620</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
@@ -4335,19 +4335,19 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>4140</v>
+        <v>4984</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>3552</v>
+        <v>1648</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>2920</v>
+        <v>2600</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="3"/>
-        <v>856</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -4356,19 +4356,19 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>7096</v>
+        <v>3420</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>1984</v>
+        <v>3916</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>3164</v>
+        <v>1492</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="3"/>
-        <v>1052</v>
+        <v>844</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
